--- a/costs.xlsx
+++ b/costs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF34A2BB-538F-4B65-AC98-3BAA5468A187}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D5E5203-8176-4C46-9768-2F36DCE738F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{875EFD76-5E10-4170-AA03-52827DC8EC01}"/>
   </bookViews>
@@ -717,7 +717,22 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="10">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -769,13 +784,13 @@
   <autoFilter ref="A1:I2379" xr:uid="{5D7A6D63-95C8-471F-A577-BEF8007CE85D}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{4A4F2983-2946-41EC-81E7-ECB955B5C7B6}" uniqueName="1" name="№ п/п" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{C4E8AA82-E737-4B62-89E9-3C29A3B20F13}" uniqueName="2" name="Наименование" queryTableFieldId="2" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{64D4AF8C-BAF3-40F8-8E6F-4B7142294203}" uniqueName="3" name="Адрес" queryTableFieldId="3" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{C4E8AA82-E737-4B62-89E9-3C29A3B20F13}" uniqueName="2" name="Наименование" queryTableFieldId="2" dataDxfId="9" totalsRowDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{64D4AF8C-BAF3-40F8-8E6F-4B7142294203}" uniqueName="3" name="Адрес" queryTableFieldId="3" dataDxfId="8" totalsRowDxfId="3"/>
     <tableColumn id="4" xr3:uid="{0D7EB2F3-3D16-4C77-8F12-89E281639E80}" uniqueName="4" name="Площадь, кв.м." queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{6F239C30-3F2D-4AF1-A749-640A11847EB9}" uniqueName="5" name="Год" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{317B679A-0ED3-43AB-B49A-4D04C2BBC365}" uniqueName="6" name="Категория" queryTableFieldId="6" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{889A8847-7DC6-46D8-B26E-D83EF3B64CCC}" uniqueName="7" name="Статья расходов" queryTableFieldId="7" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{154C7839-CF9A-49CA-AB2C-FA92E6E07ADA}" uniqueName="10" name="Источник" queryTableFieldId="10" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{317B679A-0ED3-43AB-B49A-4D04C2BBC365}" uniqueName="6" name="Категория" queryTableFieldId="6" dataDxfId="7" totalsRowDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{889A8847-7DC6-46D8-B26E-D83EF3B64CCC}" uniqueName="7" name="Статья расходов" queryTableFieldId="7" dataDxfId="6" totalsRowDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{154C7839-CF9A-49CA-AB2C-FA92E6E07ADA}" uniqueName="10" name="Источник" queryTableFieldId="10" dataDxfId="5" totalsRowDxfId="0"/>
     <tableColumn id="8" xr3:uid="{77121D9B-BECD-472C-B4C6-445CB664AEEB}" uniqueName="8" name="Расходы, руб." queryTableFieldId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1082,18 +1097,19 @@
   <dimension ref="A1:I2379"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="58.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="79.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.33203125" customWidth="1"/>
+    <col min="3" max="3" width="55.77734375" customWidth="1"/>
     <col min="4" max="4" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="80.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="80.88671875" customWidth="1"/>
+    <col min="8" max="8" width="17.109375" customWidth="1"/>
+    <col min="9" max="9" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -66778,7 +66794,7 @@
         <v>13</v>
       </c>
       <c r="I2265">
-        <v>13445205.199999999</v>
+        <v>3089041.04</v>
       </c>
     </row>
     <row r="2266" spans="1:9" x14ac:dyDescent="0.3">
